--- a/data/trans_orig/cron_prev_index-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/cron_prev_index-Habitat-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>0.7096717128101393</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.9012987601115886</v>
+        <v>0.9012987601115887</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.5363576888929932</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3811079955502024</v>
+        <v>0.3799548491358792</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4932806946102007</v>
+        <v>0.4922177609526724</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.489443599178797</v>
+        <v>0.4863942950403969</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6348444526823911</v>
+        <v>0.6255390512647777</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5636168032537033</v>
+        <v>0.5676602899538051</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6743162889965685</v>
+        <v>0.6659051677183794</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6270762962249626</v>
+        <v>0.6335125934535935</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8351016364790361</v>
+        <v>0.8397193236625872</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4935955487600414</v>
+        <v>0.4859777653999139</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6065730594096399</v>
+        <v>0.606545259152842</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5767440613253975</v>
+        <v>0.5736056461082832</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7547907784663731</v>
+        <v>0.7548908532774845</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4951540052655843</v>
+        <v>0.4952481260201424</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6423265357243203</v>
+        <v>0.6401973807529376</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6401405233283899</v>
+        <v>0.6280057225871092</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7914679948624761</v>
+        <v>0.7828773735653305</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7167541812889885</v>
+        <v>0.711700797108794</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8316590280741593</v>
+        <v>0.8390729336670985</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.812448671902447</v>
+        <v>0.8209964113319387</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.965094969300541</v>
+        <v>0.9702802220242457</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5839920660487774</v>
+        <v>0.5835817142411202</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7133348683045697</v>
+        <v>0.7180583197641203</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6820135033493465</v>
+        <v>0.6858832345810041</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8590219405642762</v>
+        <v>0.8613374815631845</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.6826725377470034</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.7336432167069155</v>
+        <v>0.7336432167069156</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5783898895060591</v>
@@ -829,7 +829,7 @@
         <v>0.6010743689505048</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.6813105320198292</v>
+        <v>0.6813105320198291</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.417062796777864</v>
+        <v>0.4260195639264021</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4627603685292511</v>
+        <v>0.4572917255794254</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4676120891969228</v>
+        <v>0.4624815450191205</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5689422931119256</v>
+        <v>0.5692192377331532</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6195206330024694</v>
+        <v>0.616890507600882</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6205722705973942</v>
+        <v>0.6158755467641981</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6220878904627989</v>
+        <v>0.6262020308096795</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6829535528157211</v>
+        <v>0.6791824429049176</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5324433603721962</v>
+        <v>0.5364564337456548</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.561471150346101</v>
+        <v>0.5586135474817957</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5605938398436623</v>
+        <v>0.5613219452101003</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6344231381806327</v>
+        <v>0.6422163698296509</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5280449259805826</v>
+        <v>0.5292277958582747</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5882713718463312</v>
+        <v>0.588017692655004</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5741898029399274</v>
+        <v>0.572519509408871</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.688071599987413</v>
+        <v>0.6905312280173077</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7571681716836406</v>
+        <v>0.7486011636745687</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7583603609985066</v>
+        <v>0.7572147305634224</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7553233180917134</v>
+        <v>0.7493632750169287</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7972030403725601</v>
+        <v>0.7877202566062839</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6191892173052475</v>
+        <v>0.6243209339786796</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6532750857729109</v>
+        <v>0.6527605939822205</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6439492838148189</v>
+        <v>0.6509724216144707</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.720046771325703</v>
+        <v>0.7234913795406245</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.5102932864383106</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.692604521051403</v>
+        <v>0.6926045210514031</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.6624545682313238</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3705759459319937</v>
+        <v>0.3756122169425028</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4193257593679335</v>
+        <v>0.4178376760391961</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4492472363657003</v>
+        <v>0.4474924143925462</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6248204436988273</v>
+        <v>0.6274774616519011</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5930098402423771</v>
+        <v>0.5881325599059369</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5614597931504424</v>
+        <v>0.5574408742852012</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5499870840354272</v>
+        <v>0.5452958099316996</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.61494010830931</v>
+        <v>0.6099848269567549</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5010482871278954</v>
+        <v>0.4975839700789249</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.51108017642141</v>
+        <v>0.511429983412814</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5160180177222632</v>
+        <v>0.5133722326242973</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6342314101757672</v>
+        <v>0.6369426200069069</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4944395261327802</v>
+        <v>0.4979805713979665</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5577756199591741</v>
+        <v>0.5500392650635273</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5869760548466038</v>
+        <v>0.5781548398143888</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7741288564660427</v>
+        <v>0.7785759874195984</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7537870807343212</v>
+        <v>0.7438050092264951</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7069581336353</v>
+        <v>0.704583139931777</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.705211463983762</v>
+        <v>0.7029737090246738</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7379959117165139</v>
+        <v>0.7350164821022278</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5936953671916948</v>
+        <v>0.5978773426718559</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.608936725359</v>
+        <v>0.6148380924019695</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6132771466015126</v>
+        <v>0.6189711383459288</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7295322091043723</v>
+        <v>0.7378898568937265</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.616166075732771</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.8537716794441041</v>
+        <v>0.853771679444104</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.5423982155565675</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4038221044968129</v>
+        <v>0.4095266081376918</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5090692701380894</v>
+        <v>0.5138410296941421</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4560487096373562</v>
+        <v>0.4548240408304858</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6006506631003752</v>
+        <v>0.5948016701287266</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5592209273073694</v>
+        <v>0.5641648572416604</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6917591615335936</v>
+        <v>0.6848517933128223</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5587573231795833</v>
+        <v>0.5572225634500302</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.793117474713981</v>
+        <v>0.7938178057131177</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5025621298655223</v>
+        <v>0.4996491652778445</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6221608310704664</v>
+        <v>0.6251227045023273</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5234503247019029</v>
+        <v>0.5253661299460781</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7202134735667066</v>
+        <v>0.7198908076040547</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5184976274581972</v>
+        <v>0.5113825430713408</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6418445031853955</v>
+        <v>0.6380187900180798</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5560417966801223</v>
+        <v>0.5653509700389183</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7216875782399059</v>
+        <v>0.7251205453279606</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6835985552128849</v>
+        <v>0.6902443656431356</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8331327904715932</v>
+        <v>0.8284839232318726</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6872742057658605</v>
+        <v>0.6801782510259538</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9139437531961843</v>
+        <v>0.9183917035841637</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5835485863753875</v>
+        <v>0.5887555639775691</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7184179795467354</v>
+        <v>0.7174612670132013</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.604814943886453</v>
+        <v>0.6063066242282946</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8064224327899602</v>
+        <v>0.8037122216488118</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.6538283830799925</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.7890001331569906</v>
+        <v>0.7890001331569905</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.5522916427951372</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4237657938785447</v>
+        <v>0.4253481357657214</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5039524872747557</v>
+        <v>0.5030914438584071</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4915932494561104</v>
+        <v>0.4907760365877032</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6309818730046102</v>
+        <v>0.6352255731819845</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6157169641580758</v>
+        <v>0.6174275684254669</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6699446256311937</v>
+        <v>0.6728352965507102</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6161107934315507</v>
+        <v>0.6197571433691604</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7569765137863683</v>
+        <v>0.757118536123594</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5291684973396765</v>
+        <v>0.5312878104321391</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5971820292311648</v>
+        <v>0.5992093403241054</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5649217297973197</v>
+        <v>0.5649935164016585</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7090048513544225</v>
+        <v>0.7072067191602781</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4787891202888065</v>
+        <v>0.4814636860907485</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5675987340636762</v>
+        <v>0.568506932362371</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5482944037238051</v>
+        <v>0.5528740100785009</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6987427365049179</v>
+        <v>0.7000688675404154</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6855296412286035</v>
+        <v>0.6834543440380882</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7422908459994652</v>
+        <v>0.7480878500524206</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6879202362833139</v>
+        <v>0.6896769905393018</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8191131866312333</v>
+        <v>0.8218553914838364</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5745569864761132</v>
+        <v>0.5754508310523667</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6483475748762936</v>
+        <v>0.6487097490579401</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6110738834184224</v>
+        <v>0.611021247964156</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7513594766897712</v>
+        <v>0.7524856168970261</v>
       </c>
     </row>
     <row r="19">
